--- a/resultados/pretratamiento-tablas-control/pretrat-francia-elo-dificil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-francia-elo-dificil-regular.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1024">
   <si>
     <t>Pretrat</t>
   </si>
@@ -175,7 +175,7 @@
     <t>45.607 (61)</t>
   </si>
   <si>
-    <t>11.574 (61)</t>
+    <t>11.557 (61)</t>
   </si>
   <si>
     <t>11.131 (61)</t>
@@ -328,7 +328,7 @@
     <t>47.5 (76)</t>
   </si>
   <si>
-    <t>11.395 (76)</t>
+    <t>11.382 (76)</t>
   </si>
   <si>
     <t>10.829 (76)</t>
@@ -487,7 +487,7 @@
     <t>49.84 (75)</t>
   </si>
   <si>
-    <t>10.4 (75)</t>
+    <t>10.387 (75)</t>
   </si>
   <si>
     <t>10.52 (75)</t>
@@ -694,7 +694,7 @@
     <t>50.782 (78)</t>
   </si>
   <si>
-    <t>10.064 (78)</t>
+    <t>10.051 (78)</t>
   </si>
   <si>
     <t>10.385 (78)</t>
@@ -856,7 +856,7 @@
     <t>46.159 (63)</t>
   </si>
   <si>
-    <t>11.429 (63)</t>
+    <t>11.413 (63)</t>
   </si>
   <si>
     <t>10.175 (63)</t>
@@ -1006,7 +1006,7 @@
     <t>47.299 (77)</t>
   </si>
   <si>
-    <t>11.519 (77)</t>
+    <t>11.506 (77)</t>
   </si>
   <si>
     <t>10.286 (77)</t>
@@ -1162,7 +1162,7 @@
     <t>47.656 (64)</t>
   </si>
   <si>
-    <t>11.016 (64)</t>
+    <t>11.0 (64)</t>
   </si>
   <si>
     <t>10.234 (64)</t>
@@ -1366,7 +1366,7 @@
     <t>48.769 (65)</t>
   </si>
   <si>
-    <t>11.231 (65)</t>
+    <t>11.215 (65)</t>
   </si>
   <si>
     <t>10.677 (65)</t>
@@ -1570,7 +1570,7 @@
     <t>47.934 (61)</t>
   </si>
   <si>
-    <t>11.361 (61)</t>
+    <t>11.344 (61)</t>
   </si>
   <si>
     <t>10.377 (61)</t>
@@ -1726,7 +1726,7 @@
     <t>48.41 (61)</t>
   </si>
   <si>
-    <t>11.426 (61)</t>
+    <t>11.41 (61)</t>
   </si>
   <si>
     <t>10.492 (61)</t>
@@ -1930,21 +1930,24 @@
     <t>50.178 (45)</t>
   </si>
   <si>
+    <t>10.822 (45)</t>
+  </si>
+  <si>
+    <t>10.644 (45)</t>
+  </si>
+  <si>
+    <t>11.578 (45)</t>
+  </si>
+  <si>
+    <t>11.556 (45)</t>
+  </si>
+  <si>
+    <t>11.133 (45)</t>
+  </si>
+  <si>
     <t>10.844 (45)</t>
   </si>
   <si>
-    <t>10.644 (45)</t>
-  </si>
-  <si>
-    <t>11.578 (45)</t>
-  </si>
-  <si>
-    <t>11.556 (45)</t>
-  </si>
-  <si>
-    <t>11.133 (45)</t>
-  </si>
-  <si>
     <t>0.646 (45)</t>
   </si>
   <si>
@@ -2131,7 +2134,7 @@
     <t>49.4 (35)</t>
   </si>
   <si>
-    <t>10.914 (35)</t>
+    <t>10.886 (35)</t>
   </si>
   <si>
     <t>10.457 (35)</t>
@@ -2335,7 +2338,7 @@
     <t>48.6 (50)</t>
   </si>
   <si>
-    <t>11.46 (50)</t>
+    <t>11.44 (50)</t>
   </si>
   <si>
     <t>11.0 (50)</t>
@@ -2488,7 +2491,7 @@
     <t>49.205 (44)</t>
   </si>
   <si>
-    <t>11.727 (44)</t>
+    <t>11.705 (44)</t>
   </si>
   <si>
     <t>10.568 (44)</t>
@@ -2680,7 +2683,7 @@
     <t>51.16 (25)</t>
   </si>
   <si>
-    <t>11.08 (25)</t>
+    <t>11.04 (25)</t>
   </si>
   <si>
     <t>10.56 (25)</t>
@@ -2923,7 +2926,7 @@
     <t>50.733 (15)</t>
   </si>
   <si>
-    <t>11.533 (15)</t>
+    <t>11.467 (15)</t>
   </si>
   <si>
     <t>11.0 (15)</t>
@@ -3524,10 +3527,10 @@
         <v>3.038</v>
       </c>
       <c r="H2">
-        <v>0.647</v>
+        <v>0.673</v>
       </c>
       <c r="I2">
-        <v>0.519</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3553,10 +3556,10 @@
         <v>-4.784</v>
       </c>
       <c r="H3">
-        <v>-1.188</v>
+        <v>-1.347</v>
       </c>
       <c r="I3">
-        <v>0.238</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3582,10 +3585,10 @@
         <v>-3.343</v>
       </c>
       <c r="H4">
-        <v>-0.5580000000000001</v>
+        <v>-0.436</v>
       </c>
       <c r="I4">
-        <v>0.578</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3611,10 +3614,10 @@
         <v>-4.112</v>
       </c>
       <c r="H5">
-        <v>-0.859</v>
+        <v>-0.728</v>
       </c>
       <c r="I5">
-        <v>0.392</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3640,10 +3643,10 @@
         <v>3.459</v>
       </c>
       <c r="H6">
-        <v>0.8100000000000001</v>
+        <v>0.889</v>
       </c>
       <c r="I6">
-        <v>0.42</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3669,10 +3672,10 @@
         <v>-2.359</v>
       </c>
       <c r="H7">
-        <v>-0.533</v>
+        <v>-0.498</v>
       </c>
       <c r="I7">
-        <v>0.595</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3695,13 +3698,13 @@
         <v>0.037</v>
       </c>
       <c r="G8">
-        <v>-0.444</v>
+        <v>-0.492</v>
       </c>
       <c r="H8">
-        <v>-0.202</v>
+        <v>-0.205</v>
       </c>
       <c r="I8">
-        <v>0.84</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3727,10 +3730,10 @@
         <v>2.312</v>
       </c>
       <c r="H9">
-        <v>1.132</v>
+        <v>1.219</v>
       </c>
       <c r="I9">
-        <v>0.26</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3756,10 +3759,10 @@
         <v>2.505</v>
       </c>
       <c r="H10">
-        <v>1.057</v>
+        <v>0.977</v>
       </c>
       <c r="I10">
-        <v>0.293</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3785,10 +3788,10 @@
         <v>2.29</v>
       </c>
       <c r="H11">
-        <v>1.022</v>
+        <v>0.771</v>
       </c>
       <c r="I11">
-        <v>0.309</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3814,10 +3817,10 @@
         <v>-2.218</v>
       </c>
       <c r="H12">
-        <v>-1.048</v>
+        <v>-1.094</v>
       </c>
       <c r="I12">
-        <v>0.297</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3843,10 +3846,10 @@
         <v>0.712</v>
       </c>
       <c r="H13">
-        <v>0.342</v>
+        <v>0.286</v>
       </c>
       <c r="I13">
-        <v>0.733</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3872,10 +3875,10 @@
         <v>-0.012</v>
       </c>
       <c r="H14">
-        <v>-0.332</v>
+        <v>-0.312</v>
       </c>
       <c r="I14">
-        <v>0.74</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3901,10 +3904,10 @@
         <v>-0.018</v>
       </c>
       <c r="H15">
-        <v>-0.483</v>
+        <v>-0.363</v>
       </c>
       <c r="I15">
-        <v>0.63</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3930,10 +3933,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="H16">
-        <v>0.222</v>
+        <v>0.15</v>
       </c>
       <c r="I16">
-        <v>0.825</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3959,10 +3962,10 @@
         <v>0.056</v>
       </c>
       <c r="H17">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="I17">
-        <v>0.148</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3988,10 +3991,10 @@
         <v>0.013</v>
       </c>
       <c r="H18">
-        <v>0.358</v>
+        <v>0.462</v>
       </c>
       <c r="I18">
-        <v>0.721</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4017,10 +4020,10 @@
         <v>-0.02</v>
       </c>
       <c r="H19">
-        <v>-0.621</v>
+        <v>-0.6</v>
       </c>
       <c r="I19">
-        <v>0.536</v>
+        <v>0.549</v>
       </c>
     </row>
   </sheetData>
@@ -4106,10 +4109,10 @@
         <v>14.814</v>
       </c>
       <c r="I2">
-        <v>2.202</v>
+        <v>2.049</v>
       </c>
       <c r="J2">
-        <v>0.031</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4138,10 +4141,10 @@
         <v>1.172</v>
       </c>
       <c r="I3">
-        <v>0.224</v>
+        <v>0.343</v>
       </c>
       <c r="J3">
-        <v>0.823</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4170,10 +4173,10 @@
         <v>12.052</v>
       </c>
       <c r="I4">
-        <v>1.443</v>
+        <v>1.131</v>
       </c>
       <c r="J4">
-        <v>0.154</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4202,10 +4205,10 @@
         <v>-10.517</v>
       </c>
       <c r="I5">
-        <v>-1.389</v>
+        <v>-0.898</v>
       </c>
       <c r="J5">
-        <v>0.17</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4234,10 +4237,10 @@
         <v>1.441</v>
       </c>
       <c r="I6">
-        <v>0.21</v>
+        <v>0.173</v>
       </c>
       <c r="J6">
-        <v>0.835</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4266,10 +4269,10 @@
         <v>-5.525</v>
       </c>
       <c r="I7">
-        <v>-0.767</v>
+        <v>-0.699</v>
       </c>
       <c r="J7">
-        <v>0.446</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4295,13 +4298,13 @@
         <v>0.027</v>
       </c>
       <c r="H8">
-        <v>-3.209</v>
+        <v>-3.241</v>
       </c>
       <c r="I8">
-        <v>-0.949</v>
+        <v>-0.867</v>
       </c>
       <c r="J8">
-        <v>0.346</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4330,10 +4333,10 @@
         <v>-0.634</v>
       </c>
       <c r="I9">
-        <v>-0.219</v>
+        <v>-0.31</v>
       </c>
       <c r="J9">
-        <v>0.828</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4362,10 +4365,10 @@
         <v>-4.623</v>
       </c>
       <c r="I10">
-        <v>-1.306</v>
+        <v>-1.086</v>
       </c>
       <c r="J10">
-        <v>0.196</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4394,10 +4397,10 @@
         <v>7.233</v>
       </c>
       <c r="I11">
-        <v>2.073</v>
+        <v>1.453</v>
       </c>
       <c r="J11">
-        <v>0.042</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4426,10 +4429,10 @@
         <v>-2.106</v>
       </c>
       <c r="I12">
-        <v>-0.607</v>
+        <v>-0.505</v>
       </c>
       <c r="J12">
-        <v>0.546</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4458,10 +4461,10 @@
         <v>3.232</v>
       </c>
       <c r="I13">
-        <v>0.963</v>
+        <v>0.792</v>
       </c>
       <c r="J13">
-        <v>0.339</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4490,10 +4493,10 @@
         <v>0.025</v>
       </c>
       <c r="I14">
-        <v>0.454</v>
+        <v>0.386</v>
       </c>
       <c r="J14">
-        <v>0.652</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4522,10 +4525,10 @@
         <v>0.007</v>
       </c>
       <c r="I15">
-        <v>0.132</v>
+        <v>0.159</v>
       </c>
       <c r="J15">
-        <v>0.896</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4554,10 +4557,10 @@
         <v>0.028</v>
       </c>
       <c r="I16">
-        <v>0.443</v>
+        <v>0.483</v>
       </c>
       <c r="J16">
-        <v>0.659</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4586,10 +4589,10 @@
         <v>0.067</v>
       </c>
       <c r="I17">
-        <v>1.18</v>
+        <v>1.239</v>
       </c>
       <c r="J17">
-        <v>0.242</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4618,10 +4621,10 @@
         <v>0.091</v>
       </c>
       <c r="I18">
-        <v>1.726</v>
+        <v>1.599</v>
       </c>
       <c r="J18">
-        <v>0.089</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4650,10 +4653,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.261</v>
+        <v>-0.229</v>
       </c>
       <c r="J19">
-        <v>0.795</v>
+        <v>0.819</v>
       </c>
     </row>
   </sheetData>
@@ -4724,10 +4727,10 @@
         <v>627</v>
       </c>
       <c r="D2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -4739,10 +4742,10 @@
         <v>7.498</v>
       </c>
       <c r="I2">
-        <v>1.066</v>
+        <v>1.028</v>
       </c>
       <c r="J2">
-        <v>0.291</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4756,10 +4759,10 @@
         <v>628</v>
       </c>
       <c r="D3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4771,10 +4774,10 @@
         <v>2.8</v>
       </c>
       <c r="I3">
-        <v>0.528</v>
+        <v>0.802</v>
       </c>
       <c r="J3">
-        <v>0.599</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4788,10 +4791,10 @@
         <v>629</v>
       </c>
       <c r="D4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -4803,10 +4806,10 @@
         <v>7.754</v>
       </c>
       <c r="I4">
-        <v>0.904</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="J4">
-        <v>0.369</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4820,10 +4823,10 @@
         <v>630</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -4835,10 +4838,10 @@
         <v>-7.596</v>
       </c>
       <c r="I5">
-        <v>-0.979</v>
+        <v>-0.773</v>
       </c>
       <c r="J5">
-        <v>0.331</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4852,10 +4855,10 @@
         <v>631</v>
       </c>
       <c r="D6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -4867,10 +4870,10 @@
         <v>3.932</v>
       </c>
       <c r="I6">
-        <v>0.5629999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="J6">
-        <v>0.575</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4884,10 +4887,10 @@
         <v>632</v>
       </c>
       <c r="D7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -4899,10 +4902,10 @@
         <v>-4.989</v>
       </c>
       <c r="I7">
-        <v>-0.68</v>
+        <v>-0.543</v>
       </c>
       <c r="J7">
-        <v>0.499</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4916,10 +4919,10 @@
         <v>633</v>
       </c>
       <c r="D8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -4928,13 +4931,13 @@
         <v>0.024</v>
       </c>
       <c r="H8">
-        <v>-0.841</v>
+        <v>-0.825</v>
       </c>
       <c r="I8">
-        <v>-0.243</v>
+        <v>-0.224</v>
       </c>
       <c r="J8">
-        <v>0.8090000000000001</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4948,7 +4951,7 @@
         <v>634</v>
       </c>
       <c r="D9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E9" t="s">
         <v>117</v>
@@ -4963,10 +4966,10 @@
         <v>-1.627</v>
       </c>
       <c r="I9">
-        <v>-0.553</v>
+        <v>-0.664</v>
       </c>
       <c r="J9">
-        <v>0.582</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4980,10 +4983,10 @@
         <v>635</v>
       </c>
       <c r="D10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -4995,10 +4998,10 @@
         <v>-3.275</v>
       </c>
       <c r="I10">
-        <v>-0.904</v>
+        <v>-0.867</v>
       </c>
       <c r="J10">
-        <v>0.37</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5012,10 +5015,10 @@
         <v>636</v>
       </c>
       <c r="D11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -5027,10 +5030,10 @@
         <v>5.391</v>
       </c>
       <c r="I11">
-        <v>1.496</v>
+        <v>1.334</v>
       </c>
       <c r="J11">
-        <v>0.14</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5044,7 +5047,7 @@
         <v>637</v>
       </c>
       <c r="D12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E12" t="s">
         <v>119</v>
@@ -5059,10 +5062,10 @@
         <v>-2.394</v>
       </c>
       <c r="I12">
-        <v>-0.678</v>
+        <v>-0.769</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5073,13 +5076,13 @@
         <v>621</v>
       </c>
       <c r="C13" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D13" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -5091,10 +5094,10 @@
         <v>3.366</v>
       </c>
       <c r="I13">
-        <v>0.986</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="J13">
-        <v>0.328</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5105,13 +5108,13 @@
         <v>622</v>
       </c>
       <c r="C14" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -5123,10 +5126,10 @@
         <v>-0.041</v>
       </c>
       <c r="I14">
-        <v>-0.726</v>
+        <v>-0.646</v>
       </c>
       <c r="J14">
-        <v>0.471</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5137,13 +5140,13 @@
         <v>623</v>
       </c>
       <c r="C15" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D15" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E15" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -5155,10 +5158,10 @@
         <v>0.007</v>
       </c>
       <c r="I15">
-        <v>0.123</v>
+        <v>0.141</v>
       </c>
       <c r="J15">
-        <v>0.902</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5169,13 +5172,13 @@
         <v>623</v>
       </c>
       <c r="C16" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D16" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E16" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -5187,10 +5190,10 @@
         <v>-0.014</v>
       </c>
       <c r="I16">
-        <v>-0.213</v>
+        <v>-0.224</v>
       </c>
       <c r="J16">
-        <v>0.832</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5201,13 +5204,13 @@
         <v>624</v>
       </c>
       <c r="C17" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E17" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -5219,10 +5222,10 @@
         <v>0.039</v>
       </c>
       <c r="I17">
-        <v>0.674</v>
+        <v>0.827</v>
       </c>
       <c r="J17">
-        <v>0.503</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5233,13 +5236,13 @@
         <v>625</v>
       </c>
       <c r="C18" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D18" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E18" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -5251,10 +5254,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I18">
-        <v>1.597</v>
+        <v>1.818</v>
       </c>
       <c r="J18">
-        <v>0.115</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5265,13 +5268,13 @@
         <v>626</v>
       </c>
       <c r="C19" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D19" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E19" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -5283,10 +5286,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.26</v>
+        <v>-0.236</v>
       </c>
       <c r="J19">
-        <v>0.796</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5351,16 +5354,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -5372,10 +5375,10 @@
         <v>12.969</v>
       </c>
       <c r="I2">
-        <v>1.525</v>
+        <v>1.763</v>
       </c>
       <c r="J2">
-        <v>0.132</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5383,16 +5386,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -5404,10 +5407,10 @@
         <v>3.604</v>
       </c>
       <c r="I3">
-        <v>0.5570000000000001</v>
+        <v>0.865</v>
       </c>
       <c r="J3">
-        <v>0.579</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5415,16 +5418,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -5436,10 +5439,10 @@
         <v>2.993</v>
       </c>
       <c r="I4">
-        <v>0.285</v>
+        <v>0.279</v>
       </c>
       <c r="J4">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5447,16 +5450,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -5468,10 +5471,10 @@
         <v>-4.585</v>
       </c>
       <c r="I5">
-        <v>-0.482</v>
+        <v>-0.484</v>
       </c>
       <c r="J5">
-        <v>0.632</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5479,16 +5482,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -5500,10 +5503,10 @@
         <v>1.765</v>
       </c>
       <c r="I6">
-        <v>0.207</v>
+        <v>0.326</v>
       </c>
       <c r="J6">
-        <v>0.837</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5511,16 +5514,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -5532,10 +5535,10 @@
         <v>0.063</v>
       </c>
       <c r="I7">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J7">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5543,16 +5546,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -5561,13 +5564,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-2.214</v>
+        <v>-2.142</v>
       </c>
       <c r="I8">
-        <v>-0.525</v>
+        <v>-0.543</v>
       </c>
       <c r="J8">
-        <v>0.601</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5575,16 +5578,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E9" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -5596,10 +5599,10 @@
         <v>-0.502</v>
       </c>
       <c r="I9">
-        <v>-0.14</v>
+        <v>-0.177</v>
       </c>
       <c r="J9">
-        <v>0.889</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5607,16 +5610,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E10" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -5628,10 +5631,10 @@
         <v>-2.906</v>
       </c>
       <c r="I10">
-        <v>-0.655</v>
+        <v>-0.607</v>
       </c>
       <c r="J10">
-        <v>0.515</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5639,16 +5642,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C11" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E11" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -5660,10 +5663,10 @@
         <v>4.52</v>
       </c>
       <c r="I11">
-        <v>1.019</v>
+        <v>0.976</v>
       </c>
       <c r="J11">
-        <v>0.312</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5671,16 +5674,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C12" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -5692,10 +5695,10 @@
         <v>-1.466</v>
       </c>
       <c r="I12">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="J12">
-        <v>0.735</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5703,16 +5706,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C13" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E13" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -5724,10 +5727,10 @@
         <v>1.714</v>
       </c>
       <c r="I13">
-        <v>0.409</v>
+        <v>0.306</v>
       </c>
       <c r="J13">
-        <v>0.6840000000000001</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5735,16 +5738,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C14" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E14" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -5756,10 +5759,10 @@
         <v>-0.056</v>
       </c>
       <c r="I14">
-        <v>-0.8070000000000001</v>
+        <v>-0.759</v>
       </c>
       <c r="J14">
-        <v>0.423</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5767,16 +5770,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C15" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E15" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -5788,10 +5791,10 @@
         <v>-0.026</v>
       </c>
       <c r="I15">
-        <v>-0.376</v>
+        <v>-0.589</v>
       </c>
       <c r="J15">
-        <v>0.708</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5799,16 +5802,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C16" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D16" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E16" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -5820,10 +5823,10 @@
         <v>0.003</v>
       </c>
       <c r="I16">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="J16">
-        <v>0.973</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5831,16 +5834,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C17" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D17" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -5852,10 +5855,10 @@
         <v>0.067</v>
       </c>
       <c r="I17">
-        <v>0.946</v>
+        <v>1.405</v>
       </c>
       <c r="J17">
-        <v>0.348</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5863,16 +5866,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C18" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D18" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E18" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -5884,10 +5887,10 @@
         <v>0.152</v>
       </c>
       <c r="I18">
-        <v>2.385</v>
+        <v>2.283</v>
       </c>
       <c r="J18">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5895,16 +5898,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C19" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D19" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E19" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -5916,10 +5919,10 @@
         <v>-0.034</v>
       </c>
       <c r="I19">
-        <v>-0.511</v>
+        <v>-0.426</v>
       </c>
       <c r="J19">
-        <v>0.611</v>
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -5980,13 +5983,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E2">
         <v>80</v>
@@ -5998,10 +6001,10 @@
         <v>-4.543</v>
       </c>
       <c r="H2">
-        <v>-0.71</v>
+        <v>-0.63</v>
       </c>
       <c r="I2">
-        <v>0.481</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6009,13 +6012,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -6027,10 +6030,10 @@
         <v>3.704</v>
       </c>
       <c r="H3">
-        <v>0.825</v>
+        <v>0.633</v>
       </c>
       <c r="I3">
-        <v>0.413</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6038,13 +6041,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -6056,10 +6059,10 @@
         <v>2.663</v>
       </c>
       <c r="H4">
-        <v>0.381</v>
+        <v>0.31</v>
       </c>
       <c r="I4">
-        <v>0.705</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6067,13 +6070,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E5">
         <v>80</v>
@@ -6085,10 +6088,10 @@
         <v>-18.98</v>
       </c>
       <c r="H5">
-        <v>-3.161</v>
+        <v>-3.22</v>
       </c>
       <c r="I5">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6096,13 +6099,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -6114,10 +6117,10 @@
         <v>3.329</v>
       </c>
       <c r="H6">
-        <v>0.507</v>
+        <v>0.662</v>
       </c>
       <c r="I6">
-        <v>0.615</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6128,10 +6131,10 @@
         <v>338</v>
       </c>
       <c r="C7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E7">
         <v>80</v>
@@ -6146,7 +6149,7 @@
         <v>-1.201</v>
       </c>
       <c r="I7">
-        <v>0.236</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6154,13 +6157,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D8" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -6169,13 +6172,13 @@
         <v>0.042</v>
       </c>
       <c r="G8">
-        <v>4.734</v>
+        <v>4.687</v>
       </c>
       <c r="H8">
-        <v>1.479</v>
+        <v>1.4</v>
       </c>
       <c r="I8">
-        <v>0.146</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6183,13 +6186,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -6201,10 +6204,10 @@
         <v>-0.612</v>
       </c>
       <c r="H9">
-        <v>-0.23</v>
+        <v>-0.215</v>
       </c>
       <c r="I9">
-        <v>0.819</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6212,13 +6215,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E10">
         <v>80</v>
@@ -6230,10 +6233,10 @@
         <v>-2.611</v>
       </c>
       <c r="H10">
-        <v>-0.904</v>
+        <v>-0.777</v>
       </c>
       <c r="I10">
-        <v>0.371</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6244,10 +6247,10 @@
         <v>344</v>
       </c>
       <c r="C11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -6259,10 +6262,10 @@
         <v>9.272</v>
       </c>
       <c r="H11">
-        <v>3.089</v>
+        <v>3.149</v>
       </c>
       <c r="I11">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6270,13 +6273,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E12">
         <v>80</v>
@@ -6288,10 +6291,10 @@
         <v>-0.746</v>
       </c>
       <c r="H12">
-        <v>-0.218</v>
+        <v>-0.32</v>
       </c>
       <c r="I12">
-        <v>0.828</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6299,13 +6302,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E13">
         <v>80</v>
@@ -6317,10 +6320,10 @@
         <v>3.536</v>
       </c>
       <c r="H13">
-        <v>1.186</v>
+        <v>1.163</v>
       </c>
       <c r="I13">
-        <v>0.242</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6328,13 +6331,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -6346,10 +6349,10 @@
         <v>-0.068</v>
       </c>
       <c r="H14">
-        <v>-1.332</v>
+        <v>-1.302</v>
       </c>
       <c r="I14">
-        <v>0.189</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6357,13 +6360,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C15" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D15" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E15">
         <v>80</v>
@@ -6375,10 +6378,10 @@
         <v>0.079</v>
       </c>
       <c r="H15">
-        <v>1.504</v>
+        <v>1.384</v>
       </c>
       <c r="I15">
-        <v>0.139</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6386,13 +6389,13 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C16" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D16" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E16">
         <v>80</v>
@@ -6404,10 +6407,10 @@
         <v>-0.002</v>
       </c>
       <c r="H16">
-        <v>-0.041</v>
+        <v>-0.044</v>
       </c>
       <c r="I16">
-        <v>0.967</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6415,13 +6418,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C17" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D17" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E17">
         <v>80</v>
@@ -6433,10 +6436,10 @@
         <v>0.015</v>
       </c>
       <c r="H17">
-        <v>0.273</v>
+        <v>0.315</v>
       </c>
       <c r="I17">
-        <v>0.786</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6444,13 +6447,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C18" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D18" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E18">
         <v>80</v>
@@ -6462,10 +6465,10 @@
         <v>0.01</v>
       </c>
       <c r="H18">
-        <v>0.204</v>
+        <v>0.157</v>
       </c>
       <c r="I18">
-        <v>0.839</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6473,13 +6476,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C19" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D19" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -6491,10 +6494,10 @@
         <v>0.037</v>
       </c>
       <c r="H19">
-        <v>0.806</v>
+        <v>0.732</v>
       </c>
       <c r="I19">
-        <v>0.425</v>
+        <v>0.464</v>
       </c>
     </row>
   </sheetData>
@@ -6562,13 +6565,13 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -6580,10 +6583,10 @@
         <v>6.373</v>
       </c>
       <c r="I2">
-        <v>0.876</v>
+        <v>0.601</v>
       </c>
       <c r="J2">
-        <v>0.385</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6591,16 +6594,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F3">
         <v>80</v>
@@ -6612,10 +6615,10 @@
         <v>0.919</v>
       </c>
       <c r="I3">
-        <v>0.178</v>
+        <v>0.194</v>
       </c>
       <c r="J3">
-        <v>0.859</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6623,16 +6626,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F4">
         <v>80</v>
@@ -6644,10 +6647,10 @@
         <v>7.842</v>
       </c>
       <c r="I4">
-        <v>0.993</v>
+        <v>0.789</v>
       </c>
       <c r="J4">
-        <v>0.326</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6655,16 +6658,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F5">
         <v>80</v>
@@ -6676,10 +6679,10 @@
         <v>-17.667</v>
       </c>
       <c r="I5">
-        <v>-2.492</v>
+        <v>-2.233</v>
       </c>
       <c r="J5">
-        <v>0.016</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6687,16 +6690,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C6" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E6" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -6708,10 +6711,10 @@
         <v>-2.376</v>
       </c>
       <c r="I6">
-        <v>-0.317</v>
+        <v>-0.274</v>
       </c>
       <c r="J6">
-        <v>0.753</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6719,16 +6722,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C7" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E7" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F7">
         <v>80</v>
@@ -6740,10 +6743,10 @@
         <v>-8.920999999999999</v>
       </c>
       <c r="I7">
-        <v>-1.273</v>
+        <v>-1.175</v>
       </c>
       <c r="J7">
-        <v>0.209</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6751,16 +6754,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D8" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F8">
         <v>80</v>
@@ -6769,13 +6772,13 @@
         <v>0.032</v>
       </c>
       <c r="H8">
-        <v>0.869</v>
+        <v>0.863</v>
       </c>
       <c r="I8">
-        <v>0.233</v>
+        <v>0.193</v>
       </c>
       <c r="J8">
-        <v>0.8169999999999999</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6783,16 +6786,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E9" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -6804,10 +6807,10 @@
         <v>0.805</v>
       </c>
       <c r="I9">
-        <v>0.266</v>
+        <v>0.321</v>
       </c>
       <c r="J9">
-        <v>0.791</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6818,13 +6821,13 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -6836,10 +6839,10 @@
         <v>-4.206</v>
       </c>
       <c r="I10">
-        <v>-1.289</v>
+        <v>-0.975</v>
       </c>
       <c r="J10">
-        <v>0.204</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6847,16 +6850,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C11" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E11" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F11">
         <v>80</v>
@@ -6868,10 +6871,10 @@
         <v>9.566000000000001</v>
       </c>
       <c r="I11">
-        <v>2.745</v>
+        <v>2.418</v>
       </c>
       <c r="J11">
-        <v>0.008999999999999999</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6879,16 +6882,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C12" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E12" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F12">
         <v>80</v>
@@ -6900,10 +6903,10 @@
         <v>2.069</v>
       </c>
       <c r="I12">
-        <v>0.532</v>
+        <v>0.54</v>
       </c>
       <c r="J12">
-        <v>0.597</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6911,16 +6914,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C13" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E13" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -6932,10 +6935,10 @@
         <v>5.49</v>
       </c>
       <c r="I13">
-        <v>1.637</v>
+        <v>1.611</v>
       </c>
       <c r="J13">
-        <v>0.109</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6943,16 +6946,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E14" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -6964,10 +6967,10 @@
         <v>-0.008</v>
       </c>
       <c r="I14">
-        <v>-0.136</v>
+        <v>-0.11</v>
       </c>
       <c r="J14">
-        <v>0.893</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6975,16 +6978,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C15" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D15" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E15" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -6996,10 +6999,10 @@
         <v>0.059</v>
       </c>
       <c r="I15">
-        <v>0.972</v>
+        <v>0.975</v>
       </c>
       <c r="J15">
-        <v>0.336</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7007,16 +7010,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E16" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F16">
         <v>80</v>
@@ -7028,10 +7031,10 @@
         <v>0.024</v>
       </c>
       <c r="I16">
-        <v>0.395</v>
+        <v>0.399</v>
       </c>
       <c r="J16">
-        <v>0.695</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7039,16 +7042,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D17" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E17" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -7060,10 +7063,10 @@
         <v>0.011</v>
       </c>
       <c r="I17">
-        <v>0.186</v>
+        <v>0.165</v>
       </c>
       <c r="J17">
-        <v>0.853</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7071,16 +7074,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C18" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D18" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E18" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F18">
         <v>80</v>
@@ -7092,10 +7095,10 @@
         <v>0.035</v>
       </c>
       <c r="I18">
-        <v>0.644</v>
+        <v>0.543</v>
       </c>
       <c r="J18">
-        <v>0.523</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7103,16 +7106,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C19" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D19" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E19" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F19">
         <v>80</v>
@@ -7124,10 +7127,10 @@
         <v>0.012</v>
       </c>
       <c r="I19">
-        <v>0.223</v>
+        <v>0.192</v>
       </c>
       <c r="J19">
-        <v>0.825</v>
+        <v>0.848</v>
       </c>
     </row>
   </sheetData>
@@ -7196,19 +7199,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G2">
         <v>80</v>
@@ -7220,10 +7223,10 @@
         <v>-0.985</v>
       </c>
       <c r="J2">
-        <v>-0.121</v>
+        <v>-0.104</v>
       </c>
       <c r="K2">
-        <v>0.904</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7231,16 +7234,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F3" t="s">
         <v>407</v>
@@ -7255,10 +7258,10 @@
         <v>4.771</v>
       </c>
       <c r="J3">
-        <v>0.844</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="K3">
-        <v>0.403</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7266,19 +7269,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G4">
         <v>80</v>
@@ -7290,10 +7293,10 @@
         <v>3.342</v>
       </c>
       <c r="J4">
-        <v>0.379</v>
+        <v>0.423</v>
       </c>
       <c r="K4">
-        <v>0.706</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7301,19 +7304,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C5" t="s">
         <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G5">
         <v>80</v>
@@ -7325,10 +7328,10 @@
         <v>-11.302</v>
       </c>
       <c r="J5">
-        <v>-1.381</v>
+        <v>-1.311</v>
       </c>
       <c r="K5">
-        <v>0.174</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7342,13 +7345,13 @@
         <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E6" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F6" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G6">
         <v>80</v>
@@ -7360,10 +7363,10 @@
         <v>0.731</v>
       </c>
       <c r="J6">
-        <v>0.08799999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="K6">
-        <v>0.93</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7371,19 +7374,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F7" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G7">
         <v>80</v>
@@ -7395,10 +7398,10 @@
         <v>-6.883</v>
       </c>
       <c r="J7">
-        <v>-0.88</v>
+        <v>-0.886</v>
       </c>
       <c r="K7">
-        <v>0.383</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7409,13 +7412,13 @@
         <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E8" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F8" t="s">
         <v>602</v>
@@ -7427,13 +7430,13 @@
         <v>0.022</v>
       </c>
       <c r="I8">
-        <v>4.823</v>
+        <v>4.892</v>
       </c>
       <c r="J8">
-        <v>1.185</v>
+        <v>1.189</v>
       </c>
       <c r="K8">
-        <v>0.242</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7441,16 +7444,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C9" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D9" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F9" t="s">
         <v>413</v>
@@ -7465,10 +7468,10 @@
         <v>-0.773</v>
       </c>
       <c r="J9">
-        <v>-0.231</v>
+        <v>-0.265</v>
       </c>
       <c r="K9">
-        <v>0.8179999999999999</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7479,16 +7482,16 @@
         <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E10" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F10" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G10">
         <v>80</v>
@@ -7500,10 +7503,10 @@
         <v>-3.449</v>
       </c>
       <c r="J10">
-        <v>-0.948</v>
+        <v>-0.864</v>
       </c>
       <c r="K10">
-        <v>0.348</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7514,16 +7517,16 @@
         <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D11" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F11" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G11">
         <v>80</v>
@@ -7535,10 +7538,10 @@
         <v>5.473</v>
       </c>
       <c r="J11">
-        <v>1.342</v>
+        <v>1.252</v>
       </c>
       <c r="K11">
-        <v>0.186</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7549,16 +7552,16 @@
         <v>414</v>
       </c>
       <c r="C12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D12" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E12" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F12" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G12">
         <v>80</v>
@@ -7570,10 +7573,10 @@
         <v>1.238</v>
       </c>
       <c r="J12">
-        <v>0.287</v>
+        <v>0.325</v>
       </c>
       <c r="K12">
-        <v>0.775</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7584,16 +7587,16 @@
         <v>600</v>
       </c>
       <c r="C13" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D13" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F13" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G13">
         <v>80</v>
@@ -7605,10 +7608,10 @@
         <v>3.731</v>
       </c>
       <c r="J13">
-        <v>0.988</v>
+        <v>1.139</v>
       </c>
       <c r="K13">
-        <v>0.328</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7616,19 +7619,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C14" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D14" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E14" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F14" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G14">
         <v>80</v>
@@ -7640,10 +7643,10 @@
         <v>-0.053</v>
       </c>
       <c r="J14">
-        <v>-0.8139999999999999</v>
+        <v>-0.722</v>
       </c>
       <c r="K14">
-        <v>0.42</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7651,19 +7654,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D15" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E15" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F15" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G15">
         <v>80</v>
@@ -7675,10 +7678,10 @@
         <v>0.059</v>
       </c>
       <c r="J15">
-        <v>0.88</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="K15">
-        <v>0.383</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7686,19 +7689,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C16" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D16" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E16" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F16" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G16">
         <v>80</v>
@@ -7710,10 +7713,10 @@
         <v>-0.023</v>
       </c>
       <c r="J16">
-        <v>-0.345</v>
+        <v>-0.344</v>
       </c>
       <c r="K16">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7721,19 +7724,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C17" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D17" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E17" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F17" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G17">
         <v>80</v>
@@ -7745,10 +7748,10 @@
         <v>0.001</v>
       </c>
       <c r="J17">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K17">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7756,19 +7759,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C18" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D18" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E18" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F18" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G18">
         <v>80</v>
@@ -7780,10 +7783,10 @@
         <v>0.074</v>
       </c>
       <c r="J18">
-        <v>1.235</v>
+        <v>1.188</v>
       </c>
       <c r="K18">
-        <v>0.223</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7791,19 +7794,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D19" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E19" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F19" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G19">
         <v>80</v>
@@ -7815,10 +7818,10 @@
         <v>0.018</v>
       </c>
       <c r="J19">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="K19">
-        <v>0.765</v>
+        <v>0.762</v>
       </c>
     </row>
   </sheetData>
@@ -7887,19 +7890,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G2">
         <v>80</v>
@@ -7911,10 +7914,10 @@
         <v>1.02</v>
       </c>
       <c r="J2">
-        <v>0.108</v>
+        <v>0.115</v>
       </c>
       <c r="K2">
-        <v>0.914</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7922,16 +7925,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F3" t="s">
         <v>475</v>
@@ -7946,10 +7949,10 @@
         <v>7.013</v>
       </c>
       <c r="J3">
-        <v>1.074</v>
+        <v>2.044</v>
       </c>
       <c r="K3">
-        <v>0.289</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7957,19 +7960,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C4" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G4">
         <v>80</v>
@@ -7981,10 +7984,10 @@
         <v>-12.724</v>
       </c>
       <c r="J4">
-        <v>-1.264</v>
+        <v>-1.33</v>
       </c>
       <c r="K4">
-        <v>0.213</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7995,16 +7998,16 @@
         <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G5">
         <v>80</v>
@@ -8016,10 +8019,10 @@
         <v>-9.225</v>
       </c>
       <c r="J5">
-        <v>-0.961</v>
+        <v>-1.242</v>
       </c>
       <c r="K5">
-        <v>0.341</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8027,19 +8030,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C6" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D6" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E6" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F6" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G6">
         <v>80</v>
@@ -8051,10 +8054,10 @@
         <v>-4.593</v>
       </c>
       <c r="J6">
-        <v>-0.478</v>
+        <v>-0.667</v>
       </c>
       <c r="K6">
-        <v>0.635</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8062,19 +8065,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D7" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E7" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F7" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G7">
         <v>80</v>
@@ -8086,10 +8089,10 @@
         <v>-3.333</v>
       </c>
       <c r="J7">
-        <v>-0.365</v>
+        <v>-0.226</v>
       </c>
       <c r="K7">
-        <v>0.717</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8097,19 +8100,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D8" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E8" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F8" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G8">
         <v>80</v>
@@ -8118,13 +8121,13 @@
         <v>0.015</v>
       </c>
       <c r="I8">
-        <v>3.965</v>
+        <v>4.088</v>
       </c>
       <c r="J8">
-        <v>0.833</v>
+        <v>0.908</v>
       </c>
       <c r="K8">
-        <v>0.409</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8132,19 +8135,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C9" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E9" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F9" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G9">
         <v>80</v>
@@ -8156,10 +8159,10 @@
         <v>-0.971</v>
       </c>
       <c r="J9">
-        <v>-0.25</v>
+        <v>-0.405</v>
       </c>
       <c r="K9">
-        <v>0.804</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8167,19 +8170,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C10" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D10" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E10" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F10" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G10">
         <v>80</v>
@@ -8191,10 +8194,10 @@
         <v>2.868</v>
       </c>
       <c r="J10">
-        <v>0.676</v>
+        <v>0.673</v>
       </c>
       <c r="K10">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8202,19 +8205,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C11" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D11" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E11" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G11">
         <v>80</v>
@@ -8226,10 +8229,10 @@
         <v>5.309</v>
       </c>
       <c r="J11">
-        <v>1.115</v>
+        <v>1.146</v>
       </c>
       <c r="K11">
-        <v>0.271</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8237,16 +8240,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C12" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D12" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F12" t="s">
         <v>480</v>
@@ -8261,10 +8264,10 @@
         <v>3.792</v>
       </c>
       <c r="J12">
-        <v>0.762</v>
+        <v>1.026</v>
       </c>
       <c r="K12">
-        <v>0.45</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8272,19 +8275,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C13" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D13" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E13" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G13">
         <v>80</v>
@@ -8296,10 +8299,10 @@
         <v>1.961</v>
       </c>
       <c r="J13">
-        <v>0.444</v>
+        <v>0.317</v>
       </c>
       <c r="K13">
-        <v>0.659</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8307,19 +8310,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C14" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D14" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E14" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F14" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G14">
         <v>80</v>
@@ -8331,10 +8334,10 @@
         <v>-0.039</v>
       </c>
       <c r="J14">
-        <v>-0.514</v>
+        <v>-0.5669999999999999</v>
       </c>
       <c r="K14">
-        <v>0.61</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8342,19 +8345,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C15" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D15" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E15" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F15" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G15">
         <v>80</v>
@@ -8366,10 +8369,10 @@
         <v>0.06</v>
       </c>
       <c r="J15">
-        <v>0.775</v>
+        <v>0.952</v>
       </c>
       <c r="K15">
-        <v>0.442</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8377,19 +8380,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C16" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F16" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G16">
         <v>80</v>
@@ -8401,10 +8404,10 @@
         <v>-0.004</v>
       </c>
       <c r="J16">
-        <v>-0.047</v>
+        <v>-0.05</v>
       </c>
       <c r="K16">
-        <v>0.963</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8412,19 +8415,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C17" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D17" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E17" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F17" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="G17">
         <v>80</v>
@@ -8436,10 +8439,10 @@
         <v>-0.012</v>
       </c>
       <c r="J17">
-        <v>-0.154</v>
+        <v>-0.166</v>
       </c>
       <c r="K17">
-        <v>0.879</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8447,19 +8450,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C18" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D18" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E18" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F18" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G18">
         <v>80</v>
@@ -8471,10 +8474,10 @@
         <v>0.064</v>
       </c>
       <c r="J18">
-        <v>0.912</v>
+        <v>0.873</v>
       </c>
       <c r="K18">
-        <v>0.366</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8482,19 +8485,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C19" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D19" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E19" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F19" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G19">
         <v>80</v>
@@ -8506,10 +8509,10 @@
         <v>-0.045</v>
       </c>
       <c r="J19">
-        <v>-0.664</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="K19">
-        <v>0.51</v>
+        <v>0.488</v>
       </c>
     </row>
   </sheetData>
@@ -8588,10 +8591,10 @@
         <v>10.133</v>
       </c>
       <c r="H2">
-        <v>1.634</v>
+        <v>1.341</v>
       </c>
       <c r="I2">
-        <v>0.105</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8617,10 +8620,10 @@
         <v>-6.941</v>
       </c>
       <c r="H3">
-        <v>-1.292</v>
+        <v>-1.027</v>
       </c>
       <c r="I3">
-        <v>0.199</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8646,10 +8649,10 @@
         <v>3.808</v>
       </c>
       <c r="H4">
-        <v>0.476</v>
+        <v>0.337</v>
       </c>
       <c r="I4">
-        <v>0.635</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8675,10 +8678,10 @@
         <v>-3.384</v>
       </c>
       <c r="H5">
-        <v>-0.528</v>
+        <v>-0.513</v>
       </c>
       <c r="I5">
-        <v>0.599</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8704,10 +8707,10 @@
         <v>4.985</v>
       </c>
       <c r="H6">
-        <v>0.874</v>
+        <v>1.489</v>
       </c>
       <c r="I6">
-        <v>0.384</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8733,10 +8736,10 @@
         <v>-3.887</v>
       </c>
       <c r="H7">
-        <v>-0.658</v>
+        <v>-0.574</v>
       </c>
       <c r="I7">
-        <v>0.512</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8759,13 +8762,13 @@
         <v>0.021</v>
       </c>
       <c r="G8">
-        <v>-2.53</v>
+        <v>-2.58</v>
       </c>
       <c r="H8">
-        <v>-0.867</v>
+        <v>-0.762</v>
       </c>
       <c r="I8">
-        <v>0.388</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8791,10 +8794,10 @@
         <v>3.232</v>
       </c>
       <c r="H9">
-        <v>1.186</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="I9">
-        <v>0.238</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8820,10 +8823,10 @@
         <v>-0.458</v>
       </c>
       <c r="H10">
-        <v>-0.144</v>
+        <v>-0.125</v>
       </c>
       <c r="I10">
-        <v>0.886</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8849,10 +8852,10 @@
         <v>2.983</v>
       </c>
       <c r="H11">
-        <v>0.997</v>
+        <v>0.887</v>
       </c>
       <c r="I11">
-        <v>0.321</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8878,10 +8881,10 @@
         <v>-4.014</v>
       </c>
       <c r="H12">
-        <v>-1.427</v>
+        <v>-2.169</v>
       </c>
       <c r="I12">
-        <v>0.157</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8907,10 +8910,10 @@
         <v>2.452</v>
       </c>
       <c r="H13">
-        <v>0.885</v>
+        <v>0.723</v>
       </c>
       <c r="I13">
-        <v>0.378</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8936,10 +8939,10 @@
         <v>0.018</v>
       </c>
       <c r="H14">
-        <v>0.374</v>
+        <v>0.421</v>
       </c>
       <c r="I14">
-        <v>0.709</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8965,10 +8968,10 @@
         <v>-0.015</v>
       </c>
       <c r="H15">
-        <v>-0.294</v>
+        <v>-0.323</v>
       </c>
       <c r="I15">
-        <v>0.77</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8994,10 +8997,10 @@
         <v>0.015</v>
       </c>
       <c r="H16">
-        <v>0.28</v>
+        <v>0.274</v>
       </c>
       <c r="I16">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9023,10 +9026,10 @@
         <v>0.089</v>
       </c>
       <c r="H17">
-        <v>1.763</v>
+        <v>1.86</v>
       </c>
       <c r="I17">
-        <v>0.081</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9052,10 +9055,10 @@
         <v>0.029</v>
       </c>
       <c r="H18">
-        <v>0.594</v>
+        <v>0.696</v>
       </c>
       <c r="I18">
-        <v>0.554</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9081,10 +9084,10 @@
         <v>-0.058</v>
       </c>
       <c r="H19">
-        <v>-1.333</v>
+        <v>-1.446</v>
       </c>
       <c r="I19">
-        <v>0.186</v>
+        <v>0.148</v>
       </c>
     </row>
   </sheetData>
@@ -9170,10 +9173,10 @@
         <v>6.604</v>
       </c>
       <c r="I2">
-        <v>0.992</v>
+        <v>0.771</v>
       </c>
       <c r="J2">
-        <v>0.324</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9202,10 +9205,10 @@
         <v>-2.962</v>
       </c>
       <c r="I3">
-        <v>-0.514</v>
+        <v>-0.489</v>
       </c>
       <c r="J3">
-        <v>0.608</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9234,10 +9237,10 @@
         <v>3.661</v>
       </c>
       <c r="I4">
-        <v>0.429</v>
+        <v>0.336</v>
       </c>
       <c r="J4">
-        <v>0.669</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9266,10 +9269,10 @@
         <v>-7.13</v>
       </c>
       <c r="I5">
-        <v>-1.049</v>
+        <v>-1.002</v>
       </c>
       <c r="J5">
-        <v>0.297</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9298,10 +9301,10 @@
         <v>4.173</v>
       </c>
       <c r="I6">
-        <v>0.6860000000000001</v>
+        <v>0.887</v>
       </c>
       <c r="J6">
-        <v>0.494</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9330,10 +9333,10 @@
         <v>-5.343</v>
       </c>
       <c r="I7">
-        <v>-0.851</v>
+        <v>-0.678</v>
       </c>
       <c r="J7">
-        <v>0.397</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9359,13 +9362,13 @@
         <v>0.018</v>
       </c>
       <c r="H8">
-        <v>-1.312</v>
+        <v>-1.352</v>
       </c>
       <c r="I8">
-        <v>-0.421</v>
+        <v>-0.348</v>
       </c>
       <c r="J8">
-        <v>0.675</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9394,10 +9397,10 @@
         <v>1.024</v>
       </c>
       <c r="I9">
-        <v>0.351</v>
+        <v>0.298</v>
       </c>
       <c r="J9">
-        <v>0.727</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9426,10 +9429,10 @@
         <v>-0.355</v>
       </c>
       <c r="I10">
-        <v>-0.105</v>
+        <v>-0.106</v>
       </c>
       <c r="J10">
-        <v>0.917</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9458,10 +9461,10 @@
         <v>4.803</v>
       </c>
       <c r="I11">
-        <v>1.517</v>
+        <v>1.366</v>
       </c>
       <c r="J11">
-        <v>0.132</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9490,10 +9493,10 @@
         <v>-2.937</v>
       </c>
       <c r="I12">
-        <v>-0.975</v>
+        <v>-1.178</v>
       </c>
       <c r="J12">
-        <v>0.332</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9522,10 +9525,10 @@
         <v>3.095</v>
       </c>
       <c r="I13">
-        <v>1.05</v>
+        <v>0.865</v>
       </c>
       <c r="J13">
-        <v>0.296</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9554,10 +9557,10 @@
         <v>-0.024</v>
       </c>
       <c r="I14">
-        <v>-0.481</v>
+        <v>-0.618</v>
       </c>
       <c r="J14">
-        <v>0.631</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9586,10 +9589,10 @@
         <v>-0.003</v>
       </c>
       <c r="I15">
-        <v>-0.059</v>
+        <v>-0.066</v>
       </c>
       <c r="J15">
-        <v>0.953</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9618,10 +9621,10 @@
         <v>-0.012</v>
       </c>
       <c r="I16">
-        <v>-0.203</v>
+        <v>-0.174</v>
       </c>
       <c r="J16">
-        <v>0.839</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9650,10 +9653,10 @@
         <v>0.068</v>
       </c>
       <c r="I17">
-        <v>1.245</v>
+        <v>1.365</v>
       </c>
       <c r="J17">
-        <v>0.216</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9682,10 +9685,10 @@
         <v>0.039</v>
       </c>
       <c r="I18">
-        <v>0.751</v>
+        <v>0.981</v>
       </c>
       <c r="J18">
-        <v>0.455</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9714,10 +9717,10 @@
         <v>-0.036</v>
       </c>
       <c r="I19">
-        <v>-0.779</v>
+        <v>-0.78</v>
       </c>
       <c r="J19">
-        <v>0.438</v>
+        <v>0.435</v>
       </c>
     </row>
   </sheetData>
@@ -9803,10 +9806,10 @@
         <v>8.211</v>
       </c>
       <c r="I2">
-        <v>1.008</v>
+        <v>0.974</v>
       </c>
       <c r="J2">
-        <v>0.316</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9835,10 +9838,10 @@
         <v>0.8139999999999999</v>
       </c>
       <c r="I3">
-        <v>0.115</v>
+        <v>0.126</v>
       </c>
       <c r="J3">
-        <v>0.908</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9867,10 +9870,10 @@
         <v>-0.33</v>
       </c>
       <c r="I4">
-        <v>-0.032</v>
+        <v>-0.024</v>
       </c>
       <c r="J4">
-        <v>0.975</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9899,10 +9902,10 @@
         <v>-7.185</v>
       </c>
       <c r="I5">
-        <v>-0.863</v>
+        <v>-0.868</v>
       </c>
       <c r="J5">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9931,10 +9934,10 @@
         <v>2.165</v>
       </c>
       <c r="I6">
-        <v>0.29</v>
+        <v>0.371</v>
       </c>
       <c r="J6">
-        <v>0.772</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9963,10 +9966,10 @@
         <v>-0.788</v>
       </c>
       <c r="I7">
-        <v>-0.102</v>
+        <v>-0.111</v>
       </c>
       <c r="J7">
-        <v>0.919</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9992,13 +9995,13 @@
         <v>0.013</v>
       </c>
       <c r="H8">
-        <v>-2.047</v>
+        <v>-2.06</v>
       </c>
       <c r="I8">
-        <v>-0.537</v>
+        <v>-0.511</v>
       </c>
       <c r="J8">
-        <v>0.593</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10027,10 +10030,10 @@
         <v>0.229</v>
       </c>
       <c r="I9">
-        <v>0.064</v>
+        <v>0.056</v>
       </c>
       <c r="J9">
-        <v>0.949</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10059,10 +10062,10 @@
         <v>0.695</v>
       </c>
       <c r="I10">
-        <v>0.168</v>
+        <v>0.149</v>
       </c>
       <c r="J10">
-        <v>0.867</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10091,10 +10094,10 @@
         <v>6.945</v>
       </c>
       <c r="I11">
-        <v>1.801</v>
+        <v>1.607</v>
       </c>
       <c r="J11">
-        <v>0.075</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10123,10 +10126,10 @@
         <v>-3.166</v>
       </c>
       <c r="I12">
-        <v>-0.858</v>
+        <v>-0.991</v>
       </c>
       <c r="J12">
-        <v>0.393</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10155,10 +10158,10 @@
         <v>0.612</v>
       </c>
       <c r="I13">
-        <v>0.169</v>
+        <v>0.176</v>
       </c>
       <c r="J13">
-        <v>0.866</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10187,10 +10190,10 @@
         <v>-0.037</v>
       </c>
       <c r="I14">
-        <v>-0.612</v>
+        <v>-0.591</v>
       </c>
       <c r="J14">
-        <v>0.542</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10219,10 +10222,10 @@
         <v>0.037</v>
       </c>
       <c r="I15">
-        <v>0.552</v>
+        <v>0.515</v>
       </c>
       <c r="J15">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10251,10 +10254,10 @@
         <v>-0.007</v>
       </c>
       <c r="I16">
-        <v>-0.102</v>
+        <v>-0.105</v>
       </c>
       <c r="J16">
-        <v>0.919</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10283,10 +10286,10 @@
         <v>0.053</v>
       </c>
       <c r="I17">
-        <v>0.795</v>
+        <v>0.867</v>
       </c>
       <c r="J17">
-        <v>0.429</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10315,10 +10318,10 @@
         <v>0.056</v>
       </c>
       <c r="I18">
-        <v>0.886</v>
+        <v>0.923</v>
       </c>
       <c r="J18">
-        <v>0.378</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10347,10 +10350,10 @@
         <v>-0.065</v>
       </c>
       <c r="I19">
-        <v>-1.146</v>
+        <v>-1.288</v>
       </c>
       <c r="J19">
-        <v>0.255</v>
+        <v>0.198</v>
       </c>
     </row>
   </sheetData>
@@ -10429,10 +10432,10 @@
         <v>4.879</v>
       </c>
       <c r="H2">
-        <v>0.898</v>
+        <v>0.867</v>
       </c>
       <c r="I2">
-        <v>0.372</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10458,10 +10461,10 @@
         <v>5.605</v>
       </c>
       <c r="H3">
-        <v>1.319</v>
+        <v>1.007</v>
       </c>
       <c r="I3">
-        <v>0.191</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10487,10 +10490,10 @@
         <v>-4.825</v>
       </c>
       <c r="H4">
-        <v>-0.72</v>
+        <v>-0.669</v>
       </c>
       <c r="I4">
-        <v>0.474</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10516,10 +10519,10 @@
         <v>-6.112</v>
       </c>
       <c r="H5">
-        <v>-1.093</v>
+        <v>-0.77</v>
       </c>
       <c r="I5">
-        <v>0.277</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10545,10 +10548,10 @@
         <v>4.558</v>
       </c>
       <c r="H6">
-        <v>0.877</v>
+        <v>1.101</v>
       </c>
       <c r="I6">
-        <v>0.383</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10574,10 +10577,10 @@
         <v>-8.773</v>
       </c>
       <c r="H7">
-        <v>-1.702</v>
+        <v>-1.309</v>
       </c>
       <c r="I7">
-        <v>0.093</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10600,13 +10603,13 @@
         <v>0.041</v>
       </c>
       <c r="G8">
-        <v>-0.302</v>
+        <v>-0.382</v>
       </c>
       <c r="H8">
-        <v>-0.115</v>
+        <v>-0.12</v>
       </c>
       <c r="I8">
-        <v>0.909</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10632,10 +10635,10 @@
         <v>-2.797</v>
       </c>
       <c r="H9">
-        <v>-1.189</v>
+        <v>-0.977</v>
       </c>
       <c r="I9">
-        <v>0.238</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10661,10 +10664,10 @@
         <v>2.028</v>
       </c>
       <c r="H10">
-        <v>0.735</v>
+        <v>0.699</v>
       </c>
       <c r="I10">
-        <v>0.465</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10690,10 +10693,10 @@
         <v>3.62</v>
       </c>
       <c r="H11">
-        <v>1.369</v>
+        <v>0.864</v>
       </c>
       <c r="I11">
-        <v>0.175</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10719,10 +10722,10 @@
         <v>-2.338</v>
       </c>
       <c r="H12">
-        <v>-0.91</v>
+        <v>-0.886</v>
       </c>
       <c r="I12">
-        <v>0.365</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10748,10 +10751,10 @@
         <v>3.206</v>
       </c>
       <c r="H13">
-        <v>1.339</v>
+        <v>0.985</v>
       </c>
       <c r="I13">
-        <v>0.184</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10777,10 +10780,10 @@
         <v>-0.018</v>
       </c>
       <c r="H14">
-        <v>-0.457</v>
+        <v>-0.433</v>
       </c>
       <c r="I14">
-        <v>0.649</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10806,10 +10809,10 @@
         <v>0.029</v>
       </c>
       <c r="H15">
-        <v>0.6870000000000001</v>
+        <v>0.594</v>
       </c>
       <c r="I15">
-        <v>0.494</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10835,10 +10838,10 @@
         <v>0.042</v>
       </c>
       <c r="H16">
-        <v>0.915</v>
+        <v>0.616</v>
       </c>
       <c r="I16">
-        <v>0.363</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10864,10 +10867,10 @@
         <v>0.073</v>
       </c>
       <c r="H17">
-        <v>1.712</v>
+        <v>1.304</v>
       </c>
       <c r="I17">
-        <v>0.091</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10893,10 +10896,10 @@
         <v>0.041</v>
       </c>
       <c r="H18">
-        <v>1.061</v>
+        <v>0.79</v>
       </c>
       <c r="I18">
-        <v>0.292</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10922,10 +10925,10 @@
         <v>0.004</v>
       </c>
       <c r="H19">
-        <v>0.112</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I19">
-        <v>0.911</v>
+        <v>0.931</v>
       </c>
     </row>
   </sheetData>
@@ -11004,10 +11007,10 @@
         <v>17.517</v>
       </c>
       <c r="H2">
-        <v>2.272</v>
+        <v>2.482</v>
       </c>
       <c r="I2">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11033,10 +11036,10 @@
         <v>7.6</v>
       </c>
       <c r="H3">
-        <v>1.226</v>
+        <v>1.072</v>
       </c>
       <c r="I3">
-        <v>0.224</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11062,10 +11065,10 @@
         <v>9.045</v>
       </c>
       <c r="H4">
-        <v>0.928</v>
+        <v>0.975</v>
       </c>
       <c r="I4">
-        <v>0.356</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11091,10 +11094,10 @@
         <v>-5.448</v>
       </c>
       <c r="H5">
-        <v>-0.666</v>
+        <v>-0.401</v>
       </c>
       <c r="I5">
-        <v>0.507</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11120,10 +11123,10 @@
         <v>5.144</v>
       </c>
       <c r="H6">
-        <v>0.678</v>
+        <v>0.677</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11149,10 +11152,10 @@
         <v>-10.287</v>
       </c>
       <c r="H7">
-        <v>-1.362</v>
+        <v>-0.854</v>
       </c>
       <c r="I7">
-        <v>0.177</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11175,13 +11178,13 @@
         <v>0.021</v>
       </c>
       <c r="G8">
-        <v>-4.084</v>
+        <v>-4.178</v>
       </c>
       <c r="H8">
-        <v>-1.073</v>
+        <v>-1.114</v>
       </c>
       <c r="I8">
-        <v>0.286</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11207,10 +11210,10 @@
         <v>-4.312</v>
       </c>
       <c r="H9">
-        <v>-1.26</v>
+        <v>-1.073</v>
       </c>
       <c r="I9">
-        <v>0.211</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11236,10 +11239,10 @@
         <v>-4.073</v>
       </c>
       <c r="H10">
-        <v>-1.016</v>
+        <v>-1.22</v>
       </c>
       <c r="I10">
-        <v>0.313</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11265,10 +11268,10 @@
         <v>4.332</v>
       </c>
       <c r="H11">
-        <v>1.12</v>
+        <v>0.742</v>
       </c>
       <c r="I11">
-        <v>0.266</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11294,10 +11297,10 @@
         <v>-3.294</v>
       </c>
       <c r="H12">
-        <v>-0.88</v>
+        <v>-0.905</v>
       </c>
       <c r="I12">
-        <v>0.381</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11323,10 +11326,10 @@
         <v>5.451</v>
       </c>
       <c r="H13">
-        <v>1.57</v>
+        <v>0.974</v>
       </c>
       <c r="I13">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11352,10 +11355,10 @@
         <v>0.044</v>
       </c>
       <c r="H14">
-        <v>0.764</v>
+        <v>0.755</v>
       </c>
       <c r="I14">
-        <v>0.447</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11381,10 +11384,10 @@
         <v>0.032</v>
       </c>
       <c r="H15">
-        <v>0.513</v>
+        <v>0.469</v>
       </c>
       <c r="I15">
-        <v>0.61</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11410,10 +11413,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H16">
-        <v>1.045</v>
+        <v>0.774</v>
       </c>
       <c r="I16">
-        <v>0.299</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11439,10 +11442,10 @@
         <v>0.154</v>
       </c>
       <c r="H17">
-        <v>2.526</v>
+        <v>1.88</v>
       </c>
       <c r="I17">
-        <v>0.013</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11468,10 +11471,10 @@
         <v>0.124</v>
       </c>
       <c r="H18">
-        <v>2.272</v>
+        <v>1.71</v>
       </c>
       <c r="I18">
-        <v>0.026</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11497,10 +11500,10 @@
         <v>-0.032</v>
       </c>
       <c r="H19">
-        <v>-0.556</v>
+        <v>-0.416</v>
       </c>
       <c r="I19">
-        <v>0.58</v>
+        <v>0.678</v>
       </c>
     </row>
   </sheetData>
@@ -11586,10 +11589,10 @@
         <v>7.008</v>
       </c>
       <c r="I2">
-        <v>0.972</v>
+        <v>0.898</v>
       </c>
       <c r="J2">
-        <v>0.334</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11618,10 +11621,10 @@
         <v>6.093</v>
       </c>
       <c r="I3">
-        <v>1.075</v>
+        <v>0.918</v>
       </c>
       <c r="J3">
-        <v>0.285</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11650,10 +11653,10 @@
         <v>4.584</v>
       </c>
       <c r="I4">
-        <v>0.514</v>
+        <v>0.525</v>
       </c>
       <c r="J4">
-        <v>0.609</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11682,10 +11685,10 @@
         <v>-3.612</v>
       </c>
       <c r="I5">
-        <v>-0.484</v>
+        <v>-0.357</v>
       </c>
       <c r="J5">
-        <v>0.63</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11714,10 +11717,10 @@
         <v>7.167</v>
       </c>
       <c r="I6">
-        <v>1.04</v>
+        <v>1.071</v>
       </c>
       <c r="J6">
-        <v>0.301</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11746,10 +11749,10 @@
         <v>-7.309</v>
       </c>
       <c r="I7">
-        <v>-1.056</v>
+        <v>-0.697</v>
       </c>
       <c r="J7">
-        <v>0.294</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11775,13 +11778,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>-0.677</v>
+        <v>-0.71</v>
       </c>
       <c r="I8">
-        <v>-0.194</v>
+        <v>-0.163</v>
       </c>
       <c r="J8">
-        <v>0.847</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11810,10 +11813,10 @@
         <v>-4.131</v>
       </c>
       <c r="I9">
-        <v>-1.324</v>
+        <v>-1.147</v>
       </c>
       <c r="J9">
-        <v>0.189</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11842,10 +11845,10 @@
         <v>-1.811</v>
       </c>
       <c r="I10">
-        <v>-0.493</v>
+        <v>-0.646</v>
       </c>
       <c r="J10">
-        <v>0.623</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11874,10 +11877,10 @@
         <v>3.21</v>
       </c>
       <c r="I11">
-        <v>0.907</v>
+        <v>0.778</v>
       </c>
       <c r="J11">
-        <v>0.367</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11906,10 +11909,10 @@
         <v>-3.267</v>
       </c>
       <c r="I12">
-        <v>-0.958</v>
+        <v>-1.294</v>
       </c>
       <c r="J12">
-        <v>0.341</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11938,10 +11941,10 @@
         <v>3.632</v>
       </c>
       <c r="I13">
-        <v>1.138</v>
+        <v>0.754</v>
       </c>
       <c r="J13">
-        <v>0.258</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11970,10 +11973,10 @@
         <v>-0.044</v>
       </c>
       <c r="I14">
-        <v>-0.834</v>
+        <v>-0.881</v>
       </c>
       <c r="J14">
-        <v>0.407</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12002,10 +12005,10 @@
         <v>0.033</v>
       </c>
       <c r="I15">
-        <v>0.574</v>
+        <v>0.581</v>
       </c>
       <c r="J15">
-        <v>0.5669999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12034,10 +12037,10 @@
         <v>0.003</v>
       </c>
       <c r="I16">
-        <v>0.053</v>
+        <v>0.038</v>
       </c>
       <c r="J16">
-        <v>0.958</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12066,10 +12069,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I17">
-        <v>1.47</v>
+        <v>1.588</v>
       </c>
       <c r="J17">
-        <v>0.145</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12098,10 +12101,10 @@
         <v>0.073</v>
       </c>
       <c r="I18">
-        <v>1.429</v>
+        <v>1.318</v>
       </c>
       <c r="J18">
-        <v>0.157</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12130,10 +12133,10 @@
         <v>-0.018</v>
       </c>
       <c r="I19">
-        <v>-0.341</v>
+        <v>-0.297</v>
       </c>
       <c r="J19">
-        <v>0.734</v>
+        <v>0.766</v>
       </c>
     </row>
   </sheetData>
@@ -12219,7 +12222,7 @@
         <v>12.153</v>
       </c>
       <c r="I2">
-        <v>1.329</v>
+        <v>1.319</v>
       </c>
       <c r="J2">
         <v>0.187</v>
@@ -12251,10 +12254,10 @@
         <v>12.374</v>
       </c>
       <c r="I3">
-        <v>1.734</v>
+        <v>1.532</v>
       </c>
       <c r="J3">
-        <v>0.08699999999999999</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12283,10 +12286,10 @@
         <v>2.079</v>
       </c>
       <c r="I4">
-        <v>0.183</v>
+        <v>0.21</v>
       </c>
       <c r="J4">
-        <v>0.856</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12315,10 +12318,10 @@
         <v>-2.997</v>
       </c>
       <c r="I5">
-        <v>-0.315</v>
+        <v>-0.265</v>
       </c>
       <c r="J5">
-        <v>0.754</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12347,10 +12350,10 @@
         <v>3.193</v>
       </c>
       <c r="I6">
-        <v>0.362</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J6">
-        <v>0.719</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12379,10 +12382,10 @@
         <v>-2.634</v>
       </c>
       <c r="I7">
-        <v>-0.297</v>
+        <v>-0.277</v>
       </c>
       <c r="J7">
-        <v>0.767</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12408,13 +12411,13 @@
         <v>0.014</v>
       </c>
       <c r="H8">
-        <v>-2.193</v>
+        <v>-2.184</v>
       </c>
       <c r="I8">
-        <v>-0.493</v>
+        <v>-0.422</v>
       </c>
       <c r="J8">
-        <v>0.623</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12443,10 +12446,10 @@
         <v>-5.726</v>
       </c>
       <c r="I9">
-        <v>-1.444</v>
+        <v>-1.205</v>
       </c>
       <c r="J9">
-        <v>0.153</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12475,10 +12478,10 @@
         <v>-2.397</v>
       </c>
       <c r="I10">
-        <v>-0.512</v>
+        <v>-0.698</v>
       </c>
       <c r="J10">
-        <v>0.61</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12507,10 +12510,10 @@
         <v>4.007</v>
       </c>
       <c r="I11">
-        <v>0.889</v>
+        <v>0.751</v>
       </c>
       <c r="J11">
-        <v>0.377</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12539,10 +12542,10 @@
         <v>-1.464</v>
       </c>
       <c r="I12">
-        <v>-0.335</v>
+        <v>-0.571</v>
       </c>
       <c r="J12">
-        <v>0.738</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12571,10 +12574,10 @@
         <v>1.669</v>
       </c>
       <c r="I13">
-        <v>0.408</v>
+        <v>0.351</v>
       </c>
       <c r="J13">
-        <v>0.6840000000000001</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12603,10 +12606,10 @@
         <v>-0.075</v>
       </c>
       <c r="I14">
-        <v>-1.12</v>
+        <v>-1.175</v>
       </c>
       <c r="J14">
-        <v>0.266</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12635,10 +12638,10 @@
         <v>0.045</v>
       </c>
       <c r="I15">
-        <v>0.619</v>
+        <v>0.594</v>
       </c>
       <c r="J15">
-        <v>0.537</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12667,10 +12670,10 @@
         <v>0.014</v>
       </c>
       <c r="I16">
-        <v>0.181</v>
+        <v>0.147</v>
       </c>
       <c r="J16">
-        <v>0.857</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12699,10 +12702,10 @@
         <v>0.083</v>
       </c>
       <c r="I17">
-        <v>1.142</v>
+        <v>1.3</v>
       </c>
       <c r="J17">
-        <v>0.257</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12731,10 +12734,10 @@
         <v>0.14</v>
       </c>
       <c r="I18">
-        <v>2.203</v>
+        <v>1.727</v>
       </c>
       <c r="J18">
-        <v>0.03</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12763,10 +12766,10 @@
         <v>-0.021</v>
       </c>
       <c r="I19">
-        <v>-0.316</v>
+        <v>-0.236</v>
       </c>
       <c r="J19">
-        <v>0.753</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12845,10 +12848,10 @@
         <v>3.652</v>
       </c>
       <c r="H2">
-        <v>0.671</v>
+        <v>0.714</v>
       </c>
       <c r="I2">
-        <v>0.504</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -12874,10 +12877,10 @@
         <v>5.825</v>
       </c>
       <c r="H3">
-        <v>1.448</v>
+        <v>1.219</v>
       </c>
       <c r="I3">
-        <v>0.153</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -12903,10 +12906,10 @@
         <v>2.954</v>
       </c>
       <c r="H4">
-        <v>0.446</v>
+        <v>0.348</v>
       </c>
       <c r="I4">
-        <v>0.657</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12932,10 +12935,10 @@
         <v>-6.959</v>
       </c>
       <c r="H5">
-        <v>-1.17</v>
+        <v>-0.736</v>
       </c>
       <c r="I5">
-        <v>0.246</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12961,10 +12964,10 @@
         <v>5.727</v>
       </c>
       <c r="H6">
-        <v>1.074</v>
+        <v>1.475</v>
       </c>
       <c r="I6">
-        <v>0.287</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12990,10 +12993,10 @@
         <v>-6.623</v>
       </c>
       <c r="H7">
-        <v>-1.182</v>
+        <v>-1.23</v>
       </c>
       <c r="I7">
-        <v>0.242</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13016,13 +13019,13 @@
         <v>0.043</v>
       </c>
       <c r="G8">
-        <v>0.374</v>
+        <v>0.314</v>
       </c>
       <c r="H8">
-        <v>0.141</v>
+        <v>0.11</v>
       </c>
       <c r="I8">
-        <v>0.889</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13048,10 +13051,10 @@
         <v>-2.778</v>
       </c>
       <c r="H9">
-        <v>-1.24</v>
+        <v>-1.056</v>
       </c>
       <c r="I9">
-        <v>0.22</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13077,10 +13080,10 @@
         <v>-0.724</v>
       </c>
       <c r="H10">
-        <v>-0.258</v>
+        <v>-0.227</v>
       </c>
       <c r="I10">
-        <v>0.797</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13106,10 +13109,10 @@
         <v>4.44</v>
       </c>
       <c r="H11">
-        <v>1.606</v>
+        <v>1.02</v>
       </c>
       <c r="I11">
-        <v>0.113</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13135,10 +13138,10 @@
         <v>-3.525</v>
       </c>
       <c r="H12">
-        <v>-1.311</v>
+        <v>-1.385</v>
       </c>
       <c r="I12">
-        <v>0.194</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13164,10 +13167,10 @@
         <v>2.36</v>
       </c>
       <c r="H13">
-        <v>0.898</v>
+        <v>0.786</v>
       </c>
       <c r="I13">
-        <v>0.373</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13193,10 +13196,10 @@
         <v>-0.044</v>
       </c>
       <c r="H14">
-        <v>-1.016</v>
+        <v>-0.8120000000000001</v>
       </c>
       <c r="I14">
-        <v>0.314</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13222,10 +13225,10 @@
         <v>0.022</v>
       </c>
       <c r="H15">
-        <v>0.515</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I15">
-        <v>0.608</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13251,10 +13254,10 @@
         <v>0.04</v>
       </c>
       <c r="H16">
-        <v>0.8169999999999999</v>
+        <v>0.769</v>
       </c>
       <c r="I16">
-        <v>0.417</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13280,10 +13283,10 @@
         <v>0.068</v>
       </c>
       <c r="H17">
-        <v>1.547</v>
+        <v>1.461</v>
       </c>
       <c r="I17">
-        <v>0.127</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13309,10 +13312,10 @@
         <v>0.047</v>
       </c>
       <c r="H18">
-        <v>1.135</v>
+        <v>0.831</v>
       </c>
       <c r="I18">
-        <v>0.261</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13338,10 +13341,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="H19">
-        <v>0.205</v>
+        <v>0.182</v>
       </c>
       <c r="I19">
-        <v>0.839</v>
+        <v>0.855</v>
       </c>
     </row>
   </sheetData>
